--- a/Pasta1 - Modificado.xlsx
+++ b/Pasta1 - Modificado.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karen\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D9899-6BE9-413E-9A93-8799A9061675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -17,8 +23,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">cálculos!$A$8:$G$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Clientes!$B$10:$I$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Geral!$A$11:$M$11</definedName>
+    <definedName name="SegmentaçãodeDados_Fornecedor">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId6"/>
+      </x15:slicerCaches>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -385,12 +408,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,12 +760,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -750,6 +767,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase3" xfId="2" builtinId="39"/>
@@ -757,34 +780,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -807,6 +803,27 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
@@ -815,77 +832,160 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Fornecedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FEFE81-9C18-4EA2-A082-2289F503E0F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Fornecedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6515100" y="1021081"/>
+              <a:ext cx="6964680" cy="617219"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Fornecedor" xr10:uid="{1B3BE364-FEBE-419C-BF0B-427D83E6477B}" sourceName="Fornecedor">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Fornecedor" xr10:uid="{EF23CD53-E3EC-4332-8C46-F8F35090651F}" cache="SegmentaçãodeDados_Fornecedor" caption="Fornecedor" columnCount="4" style="SlicerStyleLight3" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A11:M21" totalsRowCount="1">
-  <autoFilter ref="A11:M20">
-    <filterColumn colId="9"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A11:M21" totalsRowCount="1">
+  <autoFilter ref="A11:M20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Ver" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Nome" totalsRowFunction="count"/>
-    <tableColumn id="3" name="Fornecedor"/>
-    <tableColumn id="4" name="Preço de Compra" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="Data de Compra" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="6" name="Quantidade Comprada" totalsRowFunction="min"/>
-    <tableColumn id="7" name="Preço de Venda" totalsRowFunction="stdDev" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="8" name="Quantidade Vendida" totalsRowFunction="sum"/>
-    <tableColumn id="9" name="Estoque"/>
-    <tableColumn id="17" name="Estoque " totalsRowFunction="min"/>
-    <tableColumn id="10" name="Margem de Lucro por Produto" dataDxfId="6" totalsRowDxfId="0" dataCellStyle="Porcentagem"/>
-    <tableColumn id="11" name="Estoque Real" totalsRowFunction="min"/>
-    <tableColumn id="12" name="Defasagem" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ver" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nome" totalsRowFunction="count"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fornecedor"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Preço de Compra" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Data de Compra" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantidade Comprada" totalsRowFunction="min"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Preço de Venda" totalsRowFunction="stdDev" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Quantidade Vendida" totalsRowFunction="sum"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Estoque"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Estoque " totalsRowFunction="min"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Margem de Lucro por Produto" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Estoque Real" totalsRowFunction="min"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Defasagem" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B10:I19" totalsRowShown="0">
-  <autoFilter ref="B10:I19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="B10:I19" totalsRowShown="0">
+  <autoFilter ref="B10:I19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nome"/>
-    <tableColumn id="2" name="Telefone"/>
-    <tableColumn id="3" name="Email"/>
-    <tableColumn id="4" name="Cidade"/>
-    <tableColumn id="5" name="Tipo"/>
-    <tableColumn id="6" name="Data da penúltima compra" dataDxfId="5"/>
-    <tableColumn id="7" name="Data da última compra" dataDxfId="4"/>
-    <tableColumn id="8" name="Fazer contato">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nome"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Telefone"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Email"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Cidade"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Tipo"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Data da penúltima compra" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data da última compra" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Fazer contato">
       <calculatedColumnFormula>IF(TODAY()-H11&gt;H11-G11,"Sim","Não")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -896,7 +996,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -934,9 +1034,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -968,9 +1068,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1002,9 +1120,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1177,28 +1313,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:BH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -1217,7 +1353,7 @@
     <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:60" ht="4.95" customHeight="1">
+    <row r="2" spans="1:60" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1279,7 +1415,7 @@
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1341,7 +1477,7 @@
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
     </row>
-    <row r="4" spans="1:60" ht="21">
+    <row r="4" spans="1:60" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -1405,7 +1541,7 @@
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
     </row>
-    <row r="5" spans="1:60" ht="13.8" customHeight="1">
+    <row r="5" spans="1:60" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1467,7 +1603,7 @@
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:60" ht="4.95" customHeight="1">
+    <row r="6" spans="1:60" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1529,9 +1665,9 @@
       <c r="BG6" s="3"/>
       <c r="BH6" s="3"/>
     </row>
-    <row r="9" spans="1:60" ht="18" customHeight="1"/>
-    <row r="10" spans="1:60" ht="19.8" customHeight="1"/>
-    <row r="11" spans="1:60">
+    <row r="9" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:60" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -1541,7 +1677,7 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
@@ -1550,7 +1686,7 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
@@ -1572,14 +1708,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>8</v>
       </c>
       <c r="E12" s="23">
@@ -1588,7 +1724,7 @@
       <c r="F12">
         <v>25</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="25">
         <f>D12+6</f>
         <v>14</v>
       </c>
@@ -1602,7 +1738,7 @@
       <c r="J12">
         <v>8</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <f>(G12-D12)/G12</f>
         <v>0.42857142857142855</v>
       </c>
@@ -1614,14 +1750,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>8</v>
       </c>
       <c r="E13" s="23">
@@ -1630,7 +1766,7 @@
       <c r="F13">
         <v>25</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <v>14</v>
       </c>
       <c r="H13">
@@ -1642,7 +1778,7 @@
       <c r="J13">
         <v>8</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <f t="shared" ref="K13:K17" si="0">(G13-D13)/G13</f>
         <v>0.42857142857142855</v>
       </c>
@@ -1654,14 +1790,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <v>8</v>
       </c>
       <c r="E14" s="23">
@@ -1670,7 +1806,7 @@
       <c r="F14">
         <v>25</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="25">
         <v>14</v>
       </c>
       <c r="H14">
@@ -1682,7 +1818,7 @@
       <c r="J14">
         <v>8</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
@@ -1694,14 +1830,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>8</v>
       </c>
       <c r="E15" s="23">
@@ -1710,7 +1846,7 @@
       <c r="F15">
         <v>25</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <v>14</v>
       </c>
       <c r="H15">
@@ -1722,7 +1858,7 @@
       <c r="J15">
         <v>8</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="26">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
@@ -1734,14 +1870,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="25">
         <v>4.5</v>
       </c>
       <c r="E16" s="23">
@@ -1750,7 +1886,7 @@
       <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="25">
         <v>7</v>
       </c>
       <c r="H16">
@@ -1763,7 +1899,7 @@
       <c r="J16">
         <v>5</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="26">
         <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
@@ -1775,14 +1911,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>7</v>
       </c>
       <c r="E17" s="23">
@@ -1791,7 +1927,7 @@
       <c r="F17">
         <v>20</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="25">
         <f>D17+3</f>
         <v>10</v>
       </c>
@@ -1805,7 +1941,7 @@
       <c r="J17">
         <v>12</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="26">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -1817,102 +1953,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30">
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28">
         <f>F18-H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="30"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="28"/>
       <c r="M18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="D19" s="27"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D19" s="25"/>
       <c r="E19" s="23"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="25"/>
       <c r="I19">
         <f>F19-H19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30">
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28">
         <f>F20-H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="J20" s="28"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
       <c r="B21">
-        <f>SUBTOTAL(103,[Nome])</f>
+        <f>SUBTOTAL(103,Tabela1[Nome])</f>
         <v>7</v>
       </c>
-      <c r="D21" s="27">
-        <f>SUBTOTAL(101,[Preço de Compra])</f>
+      <c r="D21" s="25">
+        <f>SUBTOTAL(101,Tabela1[Preço de Compra])</f>
         <v>7.25</v>
       </c>
       <c r="E21" s="23">
-        <f>SUBTOTAL(101,[Data de Compra])</f>
+        <f>SUBTOTAL(101,Tabela1[Data de Compra])</f>
         <v>42024.833333333336</v>
       </c>
       <c r="F21">
-        <f>SUBTOTAL(105,[Quantidade Comprada])</f>
+        <f>SUBTOTAL(105,Tabela1[Quantidade Comprada])</f>
         <v>10</v>
       </c>
-      <c r="G21" s="27">
-        <f>SUBTOTAL(107,[Preço de Venda])</f>
+      <c r="G21" s="25">
+        <f>SUBTOTAL(107,Tabela1[Preço de Venda])</f>
         <v>2.9944392908634287</v>
       </c>
       <c r="H21">
-        <f>SUBTOTAL(109,[Quantidade Vendida])</f>
+        <f>SUBTOTAL(109,Tabela1[Quantidade Vendida])</f>
         <v>81</v>
       </c>
       <c r="J21">
-        <f>SUBTOTAL(105,[[Estoque ]])</f>
+        <f>SUBTOTAL(105,Tabela1[[Estoque ]])</f>
         <v>5</v>
       </c>
-      <c r="K21" s="29"/>
+      <c r="K21" s="27"/>
       <c r="L21">
-        <f>SUBTOTAL(105,[Estoque Real])</f>
+        <f>SUBTOTAL(105,Tabela1[Estoque Real])</f>
         <v>5</v>
       </c>
       <c r="M21">
-        <f>SUBTOTAL(109,[Defasagem])</f>
+        <f>SUBTOTAL(109,Tabela1[Defasagem])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" customHeight="1">
+    <row r="22" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1920,8 +2056,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1"/>
-    <row r="24" spans="1:13">
+    <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1929,7 +2065,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1938,26 +2074,34 @@
       <c r="F25" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A12:Q20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:Q20">
     <sortCondition descending="1" ref="K12"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
@@ -1976,7 +2120,7 @@
     <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="23.4">
+    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>114</v>
       </c>
@@ -1985,7 +2129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="24" thickBot="1">
+    <row r="4" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
@@ -2008,7 +2152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D5" s="21"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2017,7 +2161,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D6" s="19"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2026,7 +2170,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="2:10" ht="21">
+    <row r="7" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="D7" s="24">
         <f ca="1">IF(WEEKDAY(DATE(YEAR(TODAY()),$C$3,1))=cálculos!J6,1,IF(C7&lt;&gt;"",C7+1,""))</f>
         <v>1</v>
@@ -2056,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -2065,7 +2209,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D9" s="19"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2074,7 +2218,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="2:10" ht="21.6" thickBot="1">
+    <row r="10" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D10" s="11">
         <f ca="1">IF(J7&gt;30,"",J7+1)</f>
         <v>8</v>
@@ -2104,7 +2248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -2113,7 +2257,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2122,7 +2266,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="2:10" ht="21.6" thickBot="1">
+    <row r="13" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D13" s="11">
         <f ca="1">IF(J10&gt;30,"",J10+1)</f>
         <v>15</v>
@@ -2152,7 +2296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -2161,7 +2305,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D15" s="19"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2170,7 +2314,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="2:10" ht="21.6" thickBot="1">
+    <row r="16" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D16" s="11">
         <f ca="1">IF(J13&gt;30,"",J13+1)</f>
         <v>22</v>
@@ -2200,7 +2344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="4:10">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -2209,7 +2353,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="4:10">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18" s="19"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2218,7 +2362,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="4:10" ht="21.6" thickBot="1">
+    <row r="19" spans="4:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D19" s="11">
         <f ca="1">IF(J16&gt;30,"",J16+1)</f>
         <v>29</v>
@@ -2248,7 +2392,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="4:10">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D20" s="16"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -2257,7 +2401,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="4:10">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D21" s="19"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2266,7 +2410,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="4:10" ht="21.6" thickBot="1">
+    <row r="22" spans="4:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D22" s="11" t="str">
         <f ca="1">IF(J19&gt;30,"",J19+1)</f>
         <v/>
@@ -2296,7 +2440,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:10" ht="33" customHeight="1">
+    <row r="26" spans="4:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2309,14 +2453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
@@ -2324,8 +2468,8 @@
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18" customHeight="1"/>
-    <row r="2" spans="1:59" ht="4.95" customHeight="1">
+    <row r="1" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:59" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2386,7 +2530,7 @@
       <c r="BF2" s="3"/>
       <c r="BG2" s="3"/>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2447,7 +2591,7 @@
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
     </row>
-    <row r="4" spans="1:59" ht="21">
+    <row r="4" spans="1:59" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -2515,7 +2659,7 @@
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
     </row>
-    <row r="5" spans="1:59" ht="13.8" customHeight="1">
+    <row r="5" spans="1:59" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2576,7 +2720,7 @@
       <c r="BF5" s="3"/>
       <c r="BG5" s="3"/>
     </row>
-    <row r="6" spans="1:59" ht="4.95" customHeight="1">
+    <row r="6" spans="1:59" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2637,10 +2781,10 @@
       <c r="BF6" s="3"/>
       <c r="BG6" s="3"/>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="H8" s="23"/>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -2666,7 +2810,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -2693,7 +2837,7 @@
         <v>Não</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -2720,7 +2864,7 @@
         <v>Sim</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2891,7 @@
         <v>Sim</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -2774,7 +2918,7 @@
         <v>Sim</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -2801,7 +2945,7 @@
         <v>Sim</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -2828,7 +2972,7 @@
         <v>Sim</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -2855,7 +2999,7 @@
         <v>Sim</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -2882,7 +3026,7 @@
         <v>Sim</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -2911,15 +3055,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1"/>
-    <hyperlink ref="D12" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D15" r:id="rId5"/>
-    <hyperlink ref="D16" r:id="rId6"/>
-    <hyperlink ref="D17" r:id="rId7"/>
-    <hyperlink ref="D18" r:id="rId8"/>
-    <hyperlink ref="D19" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -2930,14 +3074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -2954,12 +3098,12 @@
     <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>16</v>
       </c>
@@ -2982,7 +3126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J6">
         <v>1</v>
       </c>
@@ -3005,20 +3149,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="32"/>
       <c r="D7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +3179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -3050,7 +3194,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3209,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3080,7 +3224,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
@@ -3095,7 +3239,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
@@ -3110,7 +3254,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
@@ -3125,7 +3269,7 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -3140,7 +3284,7 @@
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -3155,7 +3299,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -3170,7 +3314,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -3185,7 +3329,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -3200,7 +3344,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
@@ -3215,7 +3359,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -3230,7 +3374,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -3245,7 +3389,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -3260,7 +3404,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -3275,13 +3419,13 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D25" s="5" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G8"/>
+  <autoFilter ref="A8:G8" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>

--- a/Pasta1 - Modificado.xlsx
+++ b/Pasta1 - Modificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karen\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D9899-6BE9-413E-9A93-8799A9061675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A30C33E-EC8E-41D9-95C7-97E5F6B17C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -724,6 +724,34 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,7 +762,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -773,6 +801,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase3" xfId="2" builtinId="39"/>
@@ -855,6 +885,251 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA731029-47A0-498D-9C30-EBB71B613BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5852160" y="1082040"/>
+          <a:ext cx="2209800" cy="784860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Geral</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1941B333-261F-4EEB-9314-F462879098EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5859780" y="2133600"/>
+          <a:ext cx="2209800" cy="784860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Calendário</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309F31E9-E2FF-4356-8386-5F11D09621C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5859780" y="3154680"/>
+          <a:ext cx="2209800" cy="784860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Clientes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -868,8 +1143,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Fornecedor">
@@ -892,7 +1167,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -931,6 +1206,238 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CAA33F-950F-4D0B-A6B3-7334C7758276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12184380" y="320040"/>
+          <a:ext cx="1714500" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67ED637A-2E8B-430B-8117-CDCCBD9B8412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10050780" y="312420"/>
+          <a:ext cx="1714500" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8C4EC1-25D7-493D-87DA-A3C11A6B9B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12298680" y="350520"/>
+          <a:ext cx="1714500" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1316,13 +1823,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1330,9 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:BH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2095,11 +2602,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:J26"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2120,16 +2625,17 @@
     <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:10" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="34">
         <f ca="1">MONTH(TODAY())</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:10" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
@@ -2449,6 +2955,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2456,9 +2963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3067,8 +3572,9 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
